--- a/AC-Yuzin.xlsx
+++ b/AC-Yuzin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGR7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGR7\repos\DIU-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31C565-6799-41EF-958E-8A80F05BB629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61FA73C-280B-45A8-BCD8-DE3104B5206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,18 +320,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -341,13 +342,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:AE1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E25" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1551,17 +1551,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19.05" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2"/>
@@ -1587,8 +1587,8 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1616,15 +1616,15 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
@@ -1648,8 +1648,8 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1674,19 +1674,19 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
-        <v>2</v>
+      <c r="D5" s="8">
+        <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="6" spans="1:27" ht="16.95" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="21"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1736,19 +1736,19 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>4</v>
       </c>
       <c r="F7" s="2"/>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="8" spans="1:27" ht="16.95" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1798,19 +1798,19 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
       <c r="F9" s="2"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="10" spans="1:27" ht="16.95" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1860,19 +1860,19 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="12" spans="1:27" ht="16.95" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1922,19 +1922,19 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
       <c r="F13" s="2"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="14" spans="1:27" ht="16.95" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1984,20 +1984,20 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="16.95" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="8">
         <v>5</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="12">
-        <v>2</v>
+      <c r="E15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="16" spans="1:27" ht="16.8" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2046,19 +2046,19 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:31" ht="16.8" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>5</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -2107,19 +2107,19 @@
       <c r="W18" s="3"/>
     </row>
     <row r="19" spans="1:31" ht="16.95" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="8">
         <v>5</v>
       </c>
       <c r="F19" s="2"/>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="20" spans="1:31" ht="16.95" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2169,19 +2169,19 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:31" ht="16.95" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <v>3</v>
       </c>
       <c r="F21" s="2"/>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="22" spans="1:31" ht="16.95" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2231,19 +2231,19 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:31" ht="16.95" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="2"/>
@@ -2299,21 +2299,21 @@
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="1:31" ht="16.95" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12">
+      <c r="B25" s="15"/>
+      <c r="C25" s="8">
         <f t="shared" ref="C25:E25" si="0">SUM(C5:C24)</f>
+        <v>35</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D25" s="12">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -2339,11 +2339,11 @@
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="1:31" ht="16.95" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -34673,9 +34673,6 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
@@ -34684,6 +34681,23 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="A17:A18"/>
@@ -34691,30 +34705,9 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -34729,6 +34722,13 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:E24">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
